--- a/biology/Neurosciences/INAH_3/INAH_3.xlsx
+++ b/biology/Neurosciences/INAH_3/INAH_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INAH-3 est le nom abrégé du troisième noyau interstitiel de l'hypothalamus antérieur et sexuellement dimorphe des êtres humains. L'INAH-3 est significativement plus gros chez les hommes que chez les femmes quel que soit l'âge[1]. Sa taille est également influencée par l'orientation sexuelle. En effet, il est plus gros chez les hommes hétérosexuels que chez les hommes homosexuels et les femmes hétérosexuelles[2],[3],[4],[5]. Des homologues de l'INAH-3 ont été observés jouant un rôle direct dans le comportement sexuel chez les singes rhésus, les moutons et les rats. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INAH-3 est le nom abrégé du troisième noyau interstitiel de l'hypothalamus antérieur et sexuellement dimorphe des êtres humains. L'INAH-3 est significativement plus gros chez les hommes que chez les femmes quel que soit l'âge. Sa taille est également influencée par l'orientation sexuelle. En effet, il est plus gros chez les hommes hétérosexuels que chez les hommes homosexuels et les femmes hétérosexuelles. Des homologues de l'INAH-3 ont été observés jouant un rôle direct dans le comportement sexuel chez les singes rhésus, les moutons et les rats. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Liens avec l'orientation sexuelle chez l'Homme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sigle INAH fait référence à 4 groupes cellulaires précédemment non décrits de la zone hypothalamique préoptique-antérieure (PO-AHA) du cerveau humain qui est une structure qui influence la sécrétion de gonadotrophines, le comportement maternel et le comportement sexuel chez plusieurs espèces de mammifères. Il y a quatre noyaux dans le PO-AHA (INAH1-4). L'un de ces noyaux, INAH-3, s'est avéré en moyenne 2,8 fois plus gros dans le cerveau masculin que dans le cerveau féminin, et ce quel que soit l'âge.  
-Une étude rédigée par Simon LeVay et publiée dans la revue Science suggère que la région est un substrat biologique important en ce qui concerne l'orientation sexuelle. Cet article rapporte que l'INAH-3 est en moyenne plus petit chez les hommes homosexuels que chez les hommes hétérosexuels , et a en fait à peu près la même taille chez les hommes homosexuels que chez les femmes hétérosexuelles. Des recherches plus poussées ont montré que l'INAH-3 est plus petit en volume chez les hommes homosexuels que chez les hommes hétérosexuels parce que les hommes homosexuels ont une densité d'empaquetage neuronal plus élevée (le nombre de neurones par millimètre cube) dans l'INAH-3 que les hommes hétérosexuels; il n'y a pas de différence dans le nombre ou la section transversale des neurones dans l'INAH-3 des hommes homosexuels par rapport aux hétérosexuels[6],[7]. Il a également été constaté qu'il n'y a aucun effet de l'infection par le VIH sur la taille de l'INAH-3, c'est-à-dire que l'infection par le VIH ne peut pas expliquer la différence observée dans le volume d'INAH-3 entre les hommes homosexuels et hétérosexuels[6], [7].
+Une étude rédigée par Simon LeVay et publiée dans la revue Science suggère que la région est un substrat biologique important en ce qui concerne l'orientation sexuelle. Cet article rapporte que l'INAH-3 est en moyenne plus petit chez les hommes homosexuels que chez les hommes hétérosexuels , et a en fait à peu près la même taille chez les hommes homosexuels que chez les femmes hétérosexuelles. Des recherches plus poussées ont montré que l'INAH-3 est plus petit en volume chez les hommes homosexuels que chez les hommes hétérosexuels parce que les hommes homosexuels ont une densité d'empaquetage neuronal plus élevée (le nombre de neurones par millimètre cube) dans l'INAH-3 que les hommes hétérosexuels; il n'y a pas de différence dans le nombre ou la section transversale des neurones dans l'INAH-3 des hommes homosexuels par rapport aux hétérosexuels,. Il a également été constaté qu'il n'y a aucun effet de l'infection par le VIH sur la taille de l'INAH-3, c'est-à-dire que l'infection par le VIH ne peut pas expliquer la différence observée dans le volume d'INAH-3 entre les hommes homosexuels et hétérosexuels, .
 </t>
         </is>
       </c>
